--- a/CFR.SW.xlsx
+++ b/CFR.SW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9070802-16D8-4E4A-88A0-251A89AED19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAF4C58-EA82-47B9-89A4-04CDC2F90D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F1691F7E-D160-4792-AE06-DE8123BA55BD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>CFR.SW</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>CHF/EUR</t>
-  </si>
-  <si>
-    <t>FQ225</t>
   </si>
   <si>
     <t>Main</t>
@@ -174,24 +171,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Switzerland Revenue</t>
-  </si>
-  <si>
-    <t>France Revenue</t>
-  </si>
-  <si>
-    <t>US Revenue</t>
-  </si>
-  <si>
-    <t>Italy Revenue</t>
-  </si>
-  <si>
-    <t>UK Revenue</t>
-  </si>
-  <si>
-    <t>Rest of the World Revenue</t>
-  </si>
-  <si>
     <t>Jewellery Growth</t>
   </si>
   <si>
@@ -221,12 +200,90 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>Brands:</t>
+  </si>
+  <si>
+    <t>Jewelery:</t>
+  </si>
+  <si>
+    <t>Van Cleef, Cartier, Buccellati, Vherner</t>
+  </si>
+  <si>
+    <t>Specialist Watchmakers:</t>
+  </si>
+  <si>
+    <t>A. Lange &amp; Söhne, Baume&amp;Mercier, IWC, Jaeger Le Coultre</t>
+  </si>
+  <si>
+    <t>Panera, Piaget, Roger Dubuis, Vacheron Constantin</t>
+  </si>
+  <si>
+    <t>Fashion &amp; Accessoires</t>
+  </si>
+  <si>
+    <t>Alaia, Chloé. Delvaux, dunhill. G/Fore, Gianuito Rossi</t>
+  </si>
+  <si>
+    <t>Montblanc, Peter-Millar, Purdey, Serapian</t>
+  </si>
+  <si>
+    <t>Time Vallée, Watchfinder &amp; Co.</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>APAC</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan </t>
+  </si>
+  <si>
+    <t>Middle East &amp; Africa</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Online Retail</t>
+  </si>
+  <si>
+    <t>Wholesale &amp; Royalties</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +314,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -280,7 +354,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -293,8 +367,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -631,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E680BA-F5A6-4ECB-9A9C-99A134BB31C0}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +734,7 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>176.2</v>
+        <v>166.7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -664,7 +743,7 @@
       </c>
       <c r="J3" s="5">
         <f>+J2*J10</f>
-        <v>186.77199999999999</v>
+        <v>176.702</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -674,11 +753,11 @@
       <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="5">
-        <v>585.9</v>
+      <c r="J4" s="13">
+        <v>586.70000000000005</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -690,7 +769,7 @@
       </c>
       <c r="J5" s="5">
         <f>+J3*J4</f>
-        <v>109429.71479999999</v>
+        <v>103671.06340000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -698,10 +777,11 @@
         <v>5</v>
       </c>
       <c r="J6" s="5">
-        <v>10173</v>
+        <f>7606+9162</f>
+        <v>16768</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -709,11 +789,11 @@
         <v>6</v>
       </c>
       <c r="J7" s="5">
-        <f>7063+12+5987</f>
-        <v>13062</v>
+        <f>1502+4487+239+2522</f>
+        <v>8750</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -722,7 +802,7 @@
       </c>
       <c r="J8" s="5">
         <f>+J5-J6+J7</f>
-        <v>112318.71479999999</v>
+        <v>95653.063400000014</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -734,6 +814,61 @@
       </c>
       <c r="J10">
         <v>1.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -746,13 +881,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BD21AA-E1E0-45B8-970B-EADFB433A5B3}">
-  <dimension ref="A1:BV296"/>
+  <dimension ref="A1:BV298"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,58 +898,90 @@
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>21</v>
+      <c r="L2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
-        <v>2097</v>
-      </c>
-      <c r="H3" s="5"/>
+        <v>2253</v>
+      </c>
+      <c r="H3" s="5">
+        <f>+P3-G3</f>
+        <v>2189</v>
+      </c>
       <c r="I3" s="5">
-        <v>2191</v>
-      </c>
-      <c r="J3" s="5"/>
+        <v>2351</v>
+      </c>
+      <c r="J3" s="5">
+        <f>+Q3-I3</f>
+        <v>2547</v>
+      </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="N3" s="5">
+        <v>3351</v>
+      </c>
+      <c r="O3" s="5">
+        <v>4371</v>
+      </c>
+      <c r="P3" s="5">
+        <v>4442</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>4898</v>
+      </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -832,27 +999,41 @@
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
-        <v>1640</v>
-      </c>
-      <c r="H4" s="5"/>
+        <v>4262</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H31" si="0">+P4-G4</f>
+        <v>3958</v>
+      </c>
       <c r="I4" s="5">
-        <v>1731</v>
-      </c>
-      <c r="J4" s="5"/>
+        <v>3449</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J31" si="1">+Q4-I4</f>
+        <v>3701</v>
+      </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="N4" s="5">
+        <v>7487</v>
+      </c>
+      <c r="O4" s="5">
+        <v>7937</v>
+      </c>
+      <c r="P4" s="5">
+        <v>8220</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>7150</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -870,27 +1051,41 @@
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
-        <v>1609</v>
-      </c>
-      <c r="H5" s="5"/>
+        <v>2118</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>2412</v>
+      </c>
       <c r="I5" s="5">
-        <v>1554</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>2340</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="1"/>
+        <v>2896</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="N5" s="5">
+        <v>3528</v>
+      </c>
+      <c r="O5" s="5">
+        <v>4467</v>
+      </c>
+      <c r="P5" s="5">
+        <v>4530</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>5236</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -908,27 +1103,41 @@
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
-        <v>1480</v>
-      </c>
-      <c r="H6" s="5"/>
+        <v>824</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>927</v>
+      </c>
       <c r="I6" s="5">
-        <v>1161</v>
-      </c>
-      <c r="J6" s="5"/>
+        <v>1086</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="N6" s="5">
+        <v>1118</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1616</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1751</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>2186</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -946,27 +1155,41 @@
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
-        <v>488</v>
-      </c>
-      <c r="H7" s="5"/>
+        <v>764</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>909</v>
+      </c>
       <c r="I7" s="5">
-        <v>614</v>
-      </c>
-      <c r="J7" s="5"/>
+        <v>851</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="1"/>
+        <v>1078</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="N7" s="5">
+        <v>1264</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1562</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1673</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1929</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -984,27 +1207,41 @@
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
-        <v>2793</v>
-      </c>
-      <c r="H8" s="5"/>
+        <v>5202</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>5502</v>
+      </c>
       <c r="I8" s="5">
-        <v>3280</v>
-      </c>
-      <c r="J8" s="5"/>
+        <v>5281</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="1"/>
+        <v>6195</v>
+      </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="N8" s="5">
+        <v>8293</v>
+      </c>
+      <c r="O8" s="5">
+        <v>10036</v>
+      </c>
+      <c r="P8" s="5">
+        <v>10704</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>11476</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -1029,20 +1266,34 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
-        <v>5202</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>3598</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>3403</v>
+      </c>
       <c r="I9" s="5">
-        <v>5281</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>3327</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="1"/>
+        <v>3488</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="N9" s="5">
+        <v>6045</v>
+      </c>
+      <c r="O9" s="5">
+        <v>6983</v>
+      </c>
+      <c r="P9" s="5">
+        <v>7001</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>6815</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -1067,20 +1318,34 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
-        <v>3598</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>511</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>514</v>
+      </c>
       <c r="I10" s="5">
-        <v>3327</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>526</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="1"/>
+        <v>562</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="N10" s="5">
+        <v>610</v>
+      </c>
+      <c r="O10" s="5">
+        <v>842</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1025</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1088</v>
+      </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -1105,20 +1370,34 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
-        <v>511</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>379</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="I11" s="5">
-        <v>526</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>417</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="1"/>
+        <v>453</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="N11" s="5">
+        <v>829</v>
+      </c>
+      <c r="O11" s="5">
+        <v>963</v>
+      </c>
+      <c r="P11" s="5">
+        <v>789</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>870</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -1143,20 +1422,34 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
-        <v>379</v>
-      </c>
-      <c r="H12" s="5"/>
+        <v>212</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
       <c r="I12" s="5">
-        <v>417</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>203</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="N12" s="5">
+        <v>415</v>
+      </c>
+      <c r="O12" s="5">
+        <v>456</v>
+      </c>
+      <c r="P12" s="5">
+        <v>435</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>427</v>
+      </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -1181,20 +1474,34 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
-        <v>212</v>
-      </c>
-      <c r="H13" s="5"/>
+        <v>319</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>343</v>
+      </c>
       <c r="I13" s="5">
-        <v>203</v>
-      </c>
-      <c r="J13" s="5"/>
+        <v>323</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="N13" s="5">
+        <v>556</v>
+      </c>
+      <c r="O13" s="5">
+        <v>673</v>
+      </c>
+      <c r="P13" s="5">
+        <v>662</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>723</v>
+      </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -1209,30 +1516,87 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="5"/>
+      <c r="BK13" s="5"/>
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
+      <c r="BN13" s="5"/>
+      <c r="BO13" s="5"/>
+      <c r="BP13" s="5"/>
+      <c r="BQ13" s="5"/>
+      <c r="BR13" s="5"/>
+      <c r="BS13" s="5"/>
+      <c r="BT13" s="5"/>
+      <c r="BU13" s="5"/>
+      <c r="BV13" s="5"/>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
-        <v>319</v>
-      </c>
-      <c r="H14" s="5"/>
+        <v>7013</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>7215</v>
+      </c>
       <c r="I14" s="5">
-        <v>323</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>7020</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>8020</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="N14" s="5">
+        <v>11057</v>
+      </c>
+      <c r="O14" s="5">
+        <v>13497</v>
+      </c>
+      <c r="P14" s="5">
+        <v>14228</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>15040</v>
+      </c>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -1292,28 +1656,42 @@
       <c r="BV14" s="5"/>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
-        <v>10221</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7">
-        <v>10077</v>
-      </c>
-      <c r="J15" s="7"/>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>566</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>646</v>
+      </c>
+      <c r="I15" s="5">
+        <v>603</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="1"/>
+        <v>752</v>
+      </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="N15" s="5">
+        <v>1152</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1294</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1212</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>1355</v>
+      </c>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -1374,27 +1752,41 @@
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
-        <v>3248</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>2642</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
+        <v>2534</v>
+      </c>
       <c r="I16" s="5">
-        <v>3306</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>2454</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="1"/>
+        <v>2550</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="N16" s="5">
+        <v>4539</v>
+      </c>
+      <c r="O16" s="5">
+        <v>5162</v>
+      </c>
+      <c r="P16" s="5">
+        <v>5176</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>5004</v>
+      </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -1454,48 +1846,42 @@
       <c r="BV16" s="5"/>
     </row>
     <row r="17" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" ref="C17:H17" si="0">+C15-C16</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
+        <v>10221</v>
+      </c>
+      <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="0"/>
-        <v>6973</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <f>+I15-I16</f>
-        <v>6771</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" ref="J17" si="1">+J15-J16</f>
-        <v>0</v>
+        <v>10395</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10077</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="1"/>
+        <v>11322</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="N17" s="7">
+        <v>16748</v>
+      </c>
+      <c r="O17" s="7">
+        <v>19953</v>
+      </c>
+      <c r="P17" s="7">
+        <v>20616</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>21399</v>
+      </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -1556,27 +1942,41 @@
     </row>
     <row r="18" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
-        <v>2511</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>3248</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="0"/>
+        <v>3332</v>
+      </c>
       <c r="I18" s="5">
-        <v>2657</v>
-      </c>
-      <c r="J18" s="5"/>
+        <v>3306</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="1"/>
+        <v>3774</v>
+      </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="N18" s="5">
+        <v>5572</v>
+      </c>
+      <c r="O18" s="5">
+        <v>6237</v>
+      </c>
+      <c r="P18" s="5">
+        <v>6580</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>7080</v>
+      </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
@@ -1637,27 +2037,62 @@
     </row>
     <row r="19" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" ref="C19:H19" si="2">+C17-C18</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G19" s="5">
-        <v>877</v>
-      </c>
-      <c r="H19" s="5"/>
+        <f t="shared" si="2"/>
+        <v>6973</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>7063</v>
+      </c>
       <c r="I19" s="5">
-        <v>909</v>
-      </c>
-      <c r="J19" s="5"/>
+        <f>+I17-I18</f>
+        <v>6771</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" ref="J19" si="3">+J17-J18</f>
+        <v>7548</v>
+      </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="M19" s="5">
+        <f t="shared" ref="M19:P19" si="4">+M17-M18</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="4"/>
+        <v>11176</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="4"/>
+        <v>13716</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="4"/>
+        <v>14036</v>
+      </c>
+      <c r="Q19" s="5">
+        <f>+Q17-Q18</f>
+        <v>14319</v>
+      </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
@@ -1718,27 +2153,41 @@
     </row>
     <row r="20" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
-        <v>909</v>
-      </c>
-      <c r="H20" s="5"/>
+        <v>2511</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
+        <v>2733</v>
+      </c>
       <c r="I20" s="5">
-        <v>958</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>2657</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="1"/>
+        <v>2974</v>
+      </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="N20" s="5">
+        <v>3930</v>
+      </c>
+      <c r="O20" s="5">
+        <v>4683</v>
+      </c>
+      <c r="P20" s="5">
+        <v>5244</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>5631</v>
+      </c>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -1799,27 +2248,41 @@
     </row>
     <row r="21" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
-        <v>21</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>877</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
+        <v>1129</v>
+      </c>
       <c r="I21" s="5">
-        <v>41</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>909</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="1"/>
+        <v>1184</v>
+      </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="N21" s="5">
+        <v>1655</v>
+      </c>
+      <c r="O21" s="5">
+        <v>1940</v>
+      </c>
+      <c r="P21" s="5">
+        <v>2006</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>2093</v>
+      </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -1880,47 +2343,41 @@
     </row>
     <row r="22" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" ref="C22:H22" si="2">+C17-SUM(C18:C21)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="5">
-        <f t="shared" si="2"/>
-        <v>2655</v>
+        <v>909</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>980</v>
       </c>
       <c r="I22" s="5">
-        <f>+I17-SUM(I18:I21)</f>
-        <v>2206</v>
+        <v>958</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" ref="J22" si="3">+J17-SUM(J18:J21)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1033</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="N22" s="5">
+        <v>1423</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1702</v>
+      </c>
+      <c r="P22" s="5">
+        <v>1889</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1991</v>
+      </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -1981,27 +2438,43 @@
     </row>
     <row r="23" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
-        <v>395</v>
-      </c>
-      <c r="H23" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
       <c r="I23" s="5">
-        <v>672</v>
-      </c>
-      <c r="J23" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="N23" s="5">
+        <f>216+199</f>
+        <v>415</v>
+      </c>
+      <c r="O23" s="5">
+        <f>103+257</f>
+        <v>360</v>
+      </c>
+      <c r="P23" s="5">
+        <v>103</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>137</v>
+      </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
@@ -2062,27 +2535,65 @@
     </row>
     <row r="24" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" ref="C24:H24" si="5">+C19-SUM(C20:C23)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G24" s="5">
-        <v>343</v>
-      </c>
-      <c r="H24" s="5"/>
+        <f t="shared" si="5"/>
+        <v>2655</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="5"/>
+        <v>2139</v>
+      </c>
       <c r="I24" s="5">
-        <v>499</v>
-      </c>
-      <c r="J24" s="5"/>
+        <f>+I19-SUM(I20:I23)</f>
+        <v>2206</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" ref="J24:Q24" si="6">+J19-SUM(J20:J23)</f>
+        <v>2261</v>
+      </c>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="L24" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="6"/>
+        <v>3753</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="6"/>
+        <v>5031</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="6"/>
+        <v>4794</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="6"/>
+        <v>4467</v>
+      </c>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
@@ -2143,27 +2654,41 @@
     </row>
     <row r="25" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
-        <v>26</v>
-      </c>
-      <c r="H25" s="5"/>
+        <v>395</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
+        <v>392</v>
+      </c>
       <c r="I25" s="5">
-        <v>58</v>
-      </c>
-      <c r="J25" s="5"/>
+        <v>672</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="N25" s="5">
+        <v>956</v>
+      </c>
+      <c r="O25" s="5">
+        <v>597</v>
+      </c>
+      <c r="P25" s="5">
+        <v>787</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>792</v>
+      </c>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
@@ -2224,47 +2749,41 @@
     </row>
     <row r="26" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="5">
-        <f t="shared" ref="C26:H26" si="4">+C22-C23+C24+C25</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="5">
-        <f t="shared" si="4"/>
-        <v>2629</v>
+        <v>343</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>266</v>
       </c>
       <c r="I26" s="5">
-        <f>+I22-I23+I24+I25</f>
-        <v>2091</v>
+        <v>499</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" ref="J26" si="5">+J22-J23+J24+J25</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>240</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="N26" s="5">
+        <v>115</v>
+      </c>
+      <c r="O26" s="5">
+        <v>283</v>
+      </c>
+      <c r="P26" s="5">
+        <v>609</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>739</v>
+      </c>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
@@ -2325,27 +2844,41 @@
     </row>
     <row r="27" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5">
-        <v>469</v>
-      </c>
-      <c r="H27" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="I27" s="5">
-        <v>362</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="N27" s="5">
+        <v>31</v>
+      </c>
+      <c r="O27" s="5">
+        <v>41</v>
+      </c>
+      <c r="P27" s="5">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>75</v>
+      </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -2406,47 +2939,65 @@
     </row>
     <row r="28" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C28:F28" si="6">+C26-C27</f>
+        <f t="shared" ref="C28:H28" si="7">+C24-C25+C26+C27</f>
         <v>0</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <f>+G26-G27</f>
-        <v>2160</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" ref="H28:J28" si="7">+H26-H27</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="7"/>
-        <v>1729</v>
-      </c>
-      <c r="J28" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="E28" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="7"/>
+        <v>2629</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="7"/>
+        <v>2026</v>
+      </c>
+      <c r="I28" s="5">
+        <f>+I24-I25+I26+I27</f>
+        <v>2091</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" ref="J28:Q28" si="8">+J24-J25+J26+J27</f>
+        <v>2398</v>
+      </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="L28" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="8"/>
+        <v>2943</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="8"/>
+        <v>4758</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="8"/>
+        <v>4655</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="8"/>
+        <v>4489</v>
+      </c>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
@@ -2507,27 +3058,41 @@
     </row>
     <row r="29" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5">
-        <v>655</v>
-      </c>
-      <c r="H29" s="5"/>
+        <v>469</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
       <c r="I29" s="5">
-        <v>1272</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>362</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="N29" s="5">
+        <v>494</v>
+      </c>
+      <c r="O29" s="5">
+        <v>847</v>
+      </c>
+      <c r="P29" s="5">
+        <v>837</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>727</v>
+      </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
@@ -2588,47 +3153,59 @@
     </row>
     <row r="30" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" ref="C30:H30" si="8">+C28-C29</f>
+        <f t="shared" ref="C30:F30" si="9">+C28-C29</f>
         <v>0</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="8"/>
-        <v>1505</v>
+        <f>+G28-G29</f>
+        <v>2160</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="H30:J30" si="10">+H28-H29</f>
+        <v>1658</v>
       </c>
       <c r="I30" s="5">
-        <f>+I28-I29</f>
-        <v>457</v>
+        <f t="shared" si="10"/>
+        <v>1729</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" ref="J30" si="9">+J28-J29</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2033</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="N30" s="5">
+        <f t="shared" ref="N30:P30" si="11">+N28-N29</f>
+        <v>2449</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="11"/>
+        <v>3911</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="11"/>
+        <v>3818</v>
+      </c>
+      <c r="Q30" s="5">
+        <f>+Q28-Q29</f>
+        <v>3762</v>
+      </c>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
@@ -2688,21 +3265,42 @@
       <c r="BV30" s="5"/>
     </row>
     <row r="31" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="G31" s="5">
+        <v>655</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1272</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="1"/>
+        <v>-260</v>
+      </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="N31" s="5">
+        <v>370</v>
+      </c>
+      <c r="O31" s="5">
+        <v>3610</v>
+      </c>
+      <c r="P31" s="5">
+        <v>1463</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>1012</v>
+      </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
@@ -2763,47 +3361,62 @@
     </row>
     <row r="32" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="4" t="e">
-        <f t="shared" ref="C32:H32" si="10">+C30/C33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="10"/>
-        <v>2.6361884743387636</v>
-      </c>
-      <c r="H32" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="4">
-        <f>+I30/I33</f>
-        <v>0.77999658644819936</v>
-      </c>
-      <c r="J32" s="4" t="e">
-        <f t="shared" ref="J32" si="11">+J30/J33</f>
-        <v>#DIV/0!</v>
+        <v>36</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" ref="C32:H32" si="12">+C30-C31</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="12"/>
+        <v>1505</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="12"/>
+        <v>850</v>
+      </c>
+      <c r="I32" s="5">
+        <f>+I30-I31</f>
+        <v>457</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" ref="J32" si="13">+J30-J31</f>
+        <v>2293</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
+      <c r="M32" s="5">
+        <f t="shared" ref="M32:P32" si="14">+M30-M31</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="14"/>
+        <v>2079</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="14"/>
+        <v>301</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="14"/>
+        <v>2355</v>
+      </c>
+      <c r="Q32" s="5">
+        <f>+Q30-Q31</f>
+        <v>2750</v>
+      </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
@@ -2863,20 +3476,13 @@
       <c r="BV32" s="5"/>
     </row>
     <row r="33" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="5">
-        <v>570.9</v>
-      </c>
+      <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="5">
-        <v>585.9</v>
-      </c>
+      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -2944,21 +3550,66 @@
       <c r="BV33" s="5"/>
     </row>
     <row r="34" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="4" t="e">
+        <f t="shared" ref="C34:H34" si="15">+C32/C35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="15"/>
+        <v>2.6361884743387636</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="15"/>
+        <v>1.4746703678001389</v>
+      </c>
+      <c r="I34" s="4">
+        <f>+I32/I35</f>
+        <v>0.77999658644819936</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" ref="J34" si="16">+J32/J35</f>
+        <v>3.9083006647349579</v>
+      </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="L34" s="4" t="e">
+        <f t="shared" ref="L34:P34" si="17">+L32/L35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="17"/>
+        <v>4.0857043719639137</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>+Q32/Q35</f>
+        <v>4.6872336799045504</v>
+      </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -3019,38 +3670,37 @@
     </row>
     <row r="35" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="9" t="e">
-        <f>+F9/D9-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="9" t="e">
-        <f t="shared" ref="G35:H41" si="12">+G9/E9-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="9" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="9">
-        <f>+I9/G9-1</f>
-        <v>1.5186466743560167E-2</v>
-      </c>
-      <c r="J35" s="9" t="e">
-        <f>+J9/H9-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13">
+        <v>570.9</v>
+      </c>
+      <c r="H35" s="13">
+        <f>+P35</f>
+        <v>576.4</v>
+      </c>
+      <c r="I35" s="13">
+        <v>585.9</v>
+      </c>
+      <c r="J35" s="13">
+        <f>+Q35</f>
+        <v>586.70000000000005</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13">
+        <v>576.4</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>586.70000000000005</v>
+      </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -3110,32 +3760,14 @@
       <c r="BV35" s="5"/>
     </row>
     <row r="36" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="9" t="e">
-        <f t="shared" ref="F36:F41" si="13">+F10/D10-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="9" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="9" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="9">
-        <f t="shared" ref="I36:J41" si="14">+I10/G10-1</f>
-        <v>-7.5319622012228971E-2</v>
-      </c>
-      <c r="J36" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -3203,38 +3835,44 @@
     </row>
     <row r="37" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="9" t="e">
-        <f t="shared" si="13"/>
+      <c r="F37" s="8" t="e">
+        <f>+F8/D8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="9" t="e">
-        <f t="shared" si="12"/>
+      <c r="G37" s="8" t="e">
+        <f>+G8/E8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="9" t="e">
-        <f t="shared" si="12"/>
+      <c r="H37" s="8" t="e">
+        <f>+H8/F8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="9">
-        <f t="shared" si="14"/>
-        <v>2.9354207436399271E-2</v>
-      </c>
-      <c r="J37" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+      <c r="I37" s="8">
+        <f>+I8/G8-1</f>
+        <v>1.5186466743560167E-2</v>
+      </c>
+      <c r="J37" s="8">
+        <f>+J8/H8-1</f>
+        <v>0.12595419847328237</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
+      <c r="P37" s="8">
+        <f t="shared" ref="P37:Q37" si="18">+P8/O8-1</f>
+        <v>6.65603826225587E-2</v>
+      </c>
+      <c r="Q37" s="8">
+        <f>+Q8/P8-1</f>
+        <v>7.2122571001494773E-2</v>
+      </c>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
@@ -3295,38 +3933,44 @@
     </row>
     <row r="38" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="9" t="e">
-        <f t="shared" si="13"/>
+      <c r="F38" s="8" t="e">
+        <f>+F9/D9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="9" t="e">
-        <f t="shared" si="12"/>
+      <c r="G38" s="8" t="e">
+        <f>+G9/E9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="9" t="e">
-        <f t="shared" si="12"/>
+      <c r="H38" s="8" t="e">
+        <f>+H9/F9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="9">
-        <f t="shared" si="14"/>
-        <v>0.10026385224274414</v>
-      </c>
-      <c r="J38" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+      <c r="I38" s="8">
+        <f>+I9/G9-1</f>
+        <v>-7.5319622012228971E-2</v>
+      </c>
+      <c r="J38" s="8">
+        <f>+J9/H9-1</f>
+        <v>2.4977960622979634E-2</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
+      <c r="P38" s="8">
+        <f t="shared" ref="P38:Q42" si="19">+P9/O9-1</f>
+        <v>2.5776886724904191E-3</v>
+      </c>
+      <c r="Q38" s="8">
+        <f t="shared" si="19"/>
+        <v>-2.6567633195257789E-2</v>
+      </c>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
@@ -3387,38 +4031,44 @@
     </row>
     <row r="39" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="9" t="e">
-        <f t="shared" si="13"/>
+      <c r="F39" s="8" t="e">
+        <f>+F10/D10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="9" t="e">
-        <f t="shared" si="12"/>
+      <c r="G39" s="8" t="e">
+        <f>+G10/E10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="9" t="e">
-        <f t="shared" si="12"/>
+      <c r="H39" s="8" t="e">
+        <f>+H10/F10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="9">
-        <f t="shared" si="14"/>
-        <v>-4.2452830188679291E-2</v>
-      </c>
-      <c r="J39" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+      <c r="I39" s="8">
+        <f>+I10/G10-1</f>
+        <v>2.9354207436399271E-2</v>
+      </c>
+      <c r="J39" s="8">
+        <f>+J10/H10-1</f>
+        <v>9.3385214007781991E-2</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
+      <c r="P39" s="8">
+        <f t="shared" si="19"/>
+        <v>0.21733966745843225</v>
+      </c>
+      <c r="Q39" s="8">
+        <f t="shared" si="19"/>
+        <v>6.1463414634146396E-2</v>
+      </c>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -3479,38 +4129,44 @@
     </row>
     <row r="40" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="9" t="e">
-        <f t="shared" si="13"/>
+      <c r="F40" s="8" t="e">
+        <f>+F11/D11-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="9" t="e">
-        <f t="shared" si="12"/>
+      <c r="G40" s="8" t="e">
+        <f>+G11/E11-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="9" t="e">
-        <f t="shared" si="12"/>
+      <c r="H40" s="8" t="e">
+        <f>+H11/F11-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="9">
-        <f t="shared" si="14"/>
-        <v>1.2539184952978122E-2</v>
-      </c>
-      <c r="J40" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+      <c r="I40" s="8">
+        <f>+I11/G11-1</f>
+        <v>0.10026385224274414</v>
+      </c>
+      <c r="J40" s="8">
+        <f>+J11/H11-1</f>
+        <v>0.1048780487804879</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
+      <c r="P40" s="8">
+        <f t="shared" si="19"/>
+        <v>-0.18068535825545173</v>
+      </c>
+      <c r="Q40" s="8">
+        <f t="shared" si="19"/>
+        <v>0.10266159695817501</v>
+      </c>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
@@ -3570,39 +4226,45 @@
       <c r="BV40" s="5"/>
     </row>
     <row r="41" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
-        <v>57</v>
+      <c r="B41" t="s">
+        <v>48</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="9" t="e">
-        <f t="shared" si="13"/>
+      <c r="F41" s="8" t="e">
+        <f>+F12/D12-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="9" t="e">
-        <f t="shared" si="12"/>
+      <c r="G41" s="8" t="e">
+        <f>+G12/E12-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="9" t="e">
-        <f t="shared" si="12"/>
+      <c r="H41" s="8" t="e">
+        <f>+H12/F12-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="9">
-        <f t="shared" si="14"/>
-        <v>-1.4088641033166982E-2</v>
-      </c>
-      <c r="J41" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+      <c r="I41" s="8">
+        <f>+I12/G12-1</f>
+        <v>-4.2452830188679291E-2</v>
+      </c>
+      <c r="J41" s="8">
+        <f>+J12/H12-1</f>
+        <v>4.484304932735439E-3</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
+      <c r="P41" s="8">
+        <f t="shared" si="19"/>
+        <v>-4.6052631578947345E-2</v>
+      </c>
+      <c r="Q41" s="8">
+        <f t="shared" si="19"/>
+        <v>-1.8390804597701149E-2</v>
+      </c>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
@@ -3662,48 +4324,45 @@
       <c r="BV41" s="5"/>
     </row>
     <row r="42" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="9" t="e">
-        <f t="shared" ref="C42:I42" si="15">+C17/C15</f>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="8" t="e">
+        <f>+F13/D13-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D42" s="9" t="e">
-        <f t="shared" si="15"/>
+      <c r="G42" s="8" t="e">
+        <f>+G13/E13-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="9" t="e">
-        <f t="shared" si="15"/>
+      <c r="H42" s="8" t="e">
+        <f>+H13/F13-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="9">
-        <f t="shared" si="15"/>
-        <v>0.68222287447412189</v>
-      </c>
-      <c r="H42" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="9">
-        <f>+I17/I15</f>
-        <v>0.67192616850253051</v>
-      </c>
-      <c r="J42" s="9" t="e">
-        <f t="shared" ref="J42" si="16">+J17/J15</f>
-        <v>#DIV/0!</v>
+      <c r="I42" s="8">
+        <f>+I13/G13-1</f>
+        <v>1.2539184952978122E-2</v>
+      </c>
+      <c r="J42" s="8">
+        <f>+J13/H13-1</f>
+        <v>0.16618075801749277</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
+      <c r="P42" s="8">
+        <f t="shared" si="19"/>
+        <v>-1.6344725111441361E-2</v>
+      </c>
+      <c r="Q42" s="8">
+        <f t="shared" si="19"/>
+        <v>9.2145015105740136E-2</v>
+      </c>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
@@ -3763,48 +4422,48 @@
       <c r="BV42" s="5"/>
     </row>
     <row r="43" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="9" t="e">
-        <f t="shared" ref="C43:I43" si="17">+C22/C15</f>
+      <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="14" t="e">
+        <f t="shared" ref="F43" si="20">+F17/D17-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D43" s="9" t="e">
-        <f t="shared" si="17"/>
+      <c r="G43" s="14" t="e">
+        <f t="shared" ref="G43:H43" si="21">+G17/E17-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="9" t="e">
-        <f t="shared" si="17"/>
+      <c r="H43" s="14" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="9" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="9">
-        <f t="shared" si="17"/>
-        <v>0.25975931904901672</v>
-      </c>
-      <c r="H43" s="9" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="9">
-        <f>+I22/I15</f>
-        <v>0.21891435943237075</v>
-      </c>
-      <c r="J43" s="9" t="e">
-        <f t="shared" ref="J43" si="18">+J22/J15</f>
-        <v>#DIV/0!</v>
+      <c r="I43" s="14">
+        <f t="shared" ref="I43:J43" si="22">+I17/G17-1</f>
+        <v>-1.4088641033166982E-2</v>
+      </c>
+      <c r="J43" s="14">
+        <f t="shared" si="22"/>
+        <v>8.9177489177489244E-2</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
+      <c r="O43" s="14">
+        <f t="shared" ref="O43:Q43" si="23">+O17/N17-1</f>
+        <v>0.19136613326964413</v>
+      </c>
+      <c r="P43" s="14">
+        <f t="shared" si="23"/>
+        <v>3.3228086002105028E-2</v>
+      </c>
+      <c r="Q43" s="14">
+        <f>+Q17/P17-1</f>
+        <v>3.7980209545983801E-2</v>
+      </c>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
@@ -3864,48 +4523,66 @@
       <c r="BV43" s="5"/>
     </row>
     <row r="44" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="9" t="e">
-        <f t="shared" ref="C44:I44" si="19">+C27/C26</f>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="8" t="e">
+        <f t="shared" ref="C44:H44" si="24">+C19/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="9" t="e">
-        <f t="shared" si="19"/>
+      <c r="D44" s="8" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="9" t="e">
-        <f t="shared" si="19"/>
+      <c r="E44" s="8" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="9" t="e">
-        <f t="shared" si="19"/>
+      <c r="F44" s="8" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="9">
-        <f t="shared" si="19"/>
-        <v>0.1783948269303918</v>
-      </c>
-      <c r="H44" s="9" t="e">
-        <f t="shared" si="19"/>
+      <c r="G44" s="8">
+        <f t="shared" si="24"/>
+        <v>0.68222287447412189</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="24"/>
+        <v>0.67946127946127943</v>
+      </c>
+      <c r="I44" s="8">
+        <f>+I19/I17</f>
+        <v>0.67192616850253051</v>
+      </c>
+      <c r="J44" s="8">
+        <f t="shared" ref="J44:Q44" si="25">+J19/J17</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="8" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="9">
-        <f>+I27/I26</f>
-        <v>0.17312290769966523</v>
-      </c>
-      <c r="J44" s="9" t="e">
-        <f t="shared" ref="J44" si="20">+J27/J26</f>
+      <c r="M44" s="8" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
+      <c r="N44" s="8">
+        <f t="shared" si="25"/>
+        <v>0.6673035586338667</v>
+      </c>
+      <c r="O44" s="8">
+        <f t="shared" si="25"/>
+        <v>0.6874154262516915</v>
+      </c>
+      <c r="P44" s="8">
+        <f t="shared" si="25"/>
+        <v>0.68083042297244856</v>
+      </c>
+      <c r="Q44" s="8">
+        <f t="shared" si="25"/>
+        <v>0.66914341791672505</v>
+      </c>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
@@ -3965,21 +4642,66 @@
       <c r="BV44" s="5"/>
     </row>
     <row r="45" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="8" t="e">
+        <f t="shared" ref="C45:H45" si="26">+C24/C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D45" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="26"/>
+        <v>0.25975931904901672</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="26"/>
+        <v>0.20577200577200577</v>
+      </c>
+      <c r="I45" s="8">
+        <f>+I24/I17</f>
+        <v>0.21891435943237075</v>
+      </c>
+      <c r="J45" s="8">
+        <f t="shared" ref="J45:Q45" si="27">+J24/J17</f>
+        <v>0.1996996996996997</v>
+      </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
+      <c r="L45" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" s="8">
+        <f t="shared" si="27"/>
+        <v>0.22408645808454741</v>
+      </c>
+      <c r="O45" s="8">
+        <f t="shared" si="27"/>
+        <v>0.25214253495714928</v>
+      </c>
+      <c r="P45" s="8">
+        <f t="shared" si="27"/>
+        <v>0.23253783469150174</v>
+      </c>
+      <c r="Q45" s="8">
+        <f t="shared" si="27"/>
+        <v>0.20874807233982898</v>
+      </c>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
@@ -4039,21 +4761,66 @@
       <c r="BV45" s="5"/>
     </row>
     <row r="46" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="8" t="e">
+        <f t="shared" ref="C46:H46" si="28">+C29/C28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" s="8" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="8" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="8" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="28"/>
+        <v>0.1783948269303918</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="28"/>
+        <v>0.18163869693978282</v>
+      </c>
+      <c r="I46" s="8">
+        <f>+I29/I28</f>
+        <v>0.17312290769966523</v>
+      </c>
+      <c r="J46" s="8">
+        <f t="shared" ref="J46:Q46" si="29">+J29/J28</f>
+        <v>0.15221017514595497</v>
+      </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
+      <c r="L46" s="8" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="8" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N46" s="8">
+        <f t="shared" si="29"/>
+        <v>0.16785592932381924</v>
+      </c>
+      <c r="O46" s="8">
+        <f t="shared" si="29"/>
+        <v>0.17801597309794032</v>
+      </c>
+      <c r="P46" s="8">
+        <f t="shared" si="29"/>
+        <v>0.17980665950590763</v>
+      </c>
+      <c r="Q46" s="8">
+        <f t="shared" si="29"/>
+        <v>0.16195143684562263</v>
+      </c>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
@@ -22612,6 +23379,154 @@
       <c r="BU296" s="5"/>
       <c r="BV296" s="5"/>
     </row>
+    <row r="297" spans="3:74" x14ac:dyDescent="0.25">
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+      <c r="K297" s="5"/>
+      <c r="L297" s="5"/>
+      <c r="M297" s="5"/>
+      <c r="N297" s="5"/>
+      <c r="O297" s="5"/>
+      <c r="P297" s="5"/>
+      <c r="Q297" s="5"/>
+      <c r="R297" s="5"/>
+      <c r="S297" s="5"/>
+      <c r="T297" s="5"/>
+      <c r="U297" s="5"/>
+      <c r="V297" s="5"/>
+      <c r="W297" s="5"/>
+      <c r="X297" s="5"/>
+      <c r="Y297" s="5"/>
+      <c r="Z297" s="5"/>
+      <c r="AA297" s="5"/>
+      <c r="AB297" s="5"/>
+      <c r="AC297" s="5"/>
+      <c r="AD297" s="5"/>
+      <c r="AE297" s="5"/>
+      <c r="AF297" s="5"/>
+      <c r="AG297" s="5"/>
+      <c r="AH297" s="5"/>
+      <c r="AI297" s="5"/>
+      <c r="AJ297" s="5"/>
+      <c r="AK297" s="5"/>
+      <c r="AL297" s="5"/>
+      <c r="AM297" s="5"/>
+      <c r="AN297" s="5"/>
+      <c r="AO297" s="5"/>
+      <c r="AP297" s="5"/>
+      <c r="AQ297" s="5"/>
+      <c r="AR297" s="5"/>
+      <c r="AS297" s="5"/>
+      <c r="AT297" s="5"/>
+      <c r="AU297" s="5"/>
+      <c r="AV297" s="5"/>
+      <c r="AW297" s="5"/>
+      <c r="AX297" s="5"/>
+      <c r="AY297" s="5"/>
+      <c r="AZ297" s="5"/>
+      <c r="BA297" s="5"/>
+      <c r="BB297" s="5"/>
+      <c r="BC297" s="5"/>
+      <c r="BD297" s="5"/>
+      <c r="BE297" s="5"/>
+      <c r="BF297" s="5"/>
+      <c r="BG297" s="5"/>
+      <c r="BH297" s="5"/>
+      <c r="BI297" s="5"/>
+      <c r="BJ297" s="5"/>
+      <c r="BK297" s="5"/>
+      <c r="BL297" s="5"/>
+      <c r="BM297" s="5"/>
+      <c r="BN297" s="5"/>
+      <c r="BO297" s="5"/>
+      <c r="BP297" s="5"/>
+      <c r="BQ297" s="5"/>
+      <c r="BR297" s="5"/>
+      <c r="BS297" s="5"/>
+      <c r="BT297" s="5"/>
+      <c r="BU297" s="5"/>
+      <c r="BV297" s="5"/>
+    </row>
+    <row r="298" spans="3:74" x14ac:dyDescent="0.25">
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+      <c r="K298" s="5"/>
+      <c r="L298" s="5"/>
+      <c r="M298" s="5"/>
+      <c r="N298" s="5"/>
+      <c r="O298" s="5"/>
+      <c r="P298" s="5"/>
+      <c r="Q298" s="5"/>
+      <c r="R298" s="5"/>
+      <c r="S298" s="5"/>
+      <c r="T298" s="5"/>
+      <c r="U298" s="5"/>
+      <c r="V298" s="5"/>
+      <c r="W298" s="5"/>
+      <c r="X298" s="5"/>
+      <c r="Y298" s="5"/>
+      <c r="Z298" s="5"/>
+      <c r="AA298" s="5"/>
+      <c r="AB298" s="5"/>
+      <c r="AC298" s="5"/>
+      <c r="AD298" s="5"/>
+      <c r="AE298" s="5"/>
+      <c r="AF298" s="5"/>
+      <c r="AG298" s="5"/>
+      <c r="AH298" s="5"/>
+      <c r="AI298" s="5"/>
+      <c r="AJ298" s="5"/>
+      <c r="AK298" s="5"/>
+      <c r="AL298" s="5"/>
+      <c r="AM298" s="5"/>
+      <c r="AN298" s="5"/>
+      <c r="AO298" s="5"/>
+      <c r="AP298" s="5"/>
+      <c r="AQ298" s="5"/>
+      <c r="AR298" s="5"/>
+      <c r="AS298" s="5"/>
+      <c r="AT298" s="5"/>
+      <c r="AU298" s="5"/>
+      <c r="AV298" s="5"/>
+      <c r="AW298" s="5"/>
+      <c r="AX298" s="5"/>
+      <c r="AY298" s="5"/>
+      <c r="AZ298" s="5"/>
+      <c r="BA298" s="5"/>
+      <c r="BB298" s="5"/>
+      <c r="BC298" s="5"/>
+      <c r="BD298" s="5"/>
+      <c r="BE298" s="5"/>
+      <c r="BF298" s="5"/>
+      <c r="BG298" s="5"/>
+      <c r="BH298" s="5"/>
+      <c r="BI298" s="5"/>
+      <c r="BJ298" s="5"/>
+      <c r="BK298" s="5"/>
+      <c r="BL298" s="5"/>
+      <c r="BM298" s="5"/>
+      <c r="BN298" s="5"/>
+      <c r="BO298" s="5"/>
+      <c r="BP298" s="5"/>
+      <c r="BQ298" s="5"/>
+      <c r="BR298" s="5"/>
+      <c r="BS298" s="5"/>
+      <c r="BT298" s="5"/>
+      <c r="BU298" s="5"/>
+      <c r="BV298" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F1948B12-01A5-4BAA-900E-76445AC9CA13}"/>

--- a/CFR.SW.xlsx
+++ b/CFR.SW.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAF4C58-EA82-47B9-89A4-04CDC2F90D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B4326-1934-47A5-82BC-6BD677E6FCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F1691F7E-D160-4792-AE06-DE8123BA55BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Quartr" sheetId="3" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
   <si>
     <t>CFR.SW</t>
   </si>
@@ -273,7 +274,55 @@
     <t>Wholesale &amp; Royalties</t>
   </si>
   <si>
-    <t>FQ425</t>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
+  <si>
+    <t>EU Growth</t>
+  </si>
+  <si>
+    <t>APAC Growth</t>
+  </si>
+  <si>
+    <t>Americas Growth</t>
+  </si>
+  <si>
+    <t>Japan Growth</t>
+  </si>
+  <si>
+    <t>Middle East Growth</t>
+  </si>
+  <si>
+    <t>Retail Growth</t>
+  </si>
+  <si>
+    <t>Online Growth</t>
+  </si>
+  <si>
+    <t>Wholesale Growth</t>
+  </si>
+  <si>
+    <t>FQ126</t>
   </si>
 </sst>
 </file>
@@ -354,7 +403,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -369,9 +418,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -712,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E680BA-F5A6-4ECB-9A9C-99A134BB31C0}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +781,7 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>166.7</v>
+        <v>149.9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -743,7 +790,7 @@
       </c>
       <c r="J3" s="5">
         <f>+J2*J10</f>
-        <v>176.702</v>
+        <v>158.89400000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -753,11 +800,11 @@
       <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>586.70000000000005</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -769,7 +816,7 @@
       </c>
       <c r="J5" s="5">
         <f>+J3*J4</f>
-        <v>103671.06340000001</v>
+        <v>93223.109800000006</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -781,7 +828,7 @@
         <v>16768</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -793,7 +840,7 @@
         <v>8750</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -802,7 +849,7 @@
       </c>
       <c r="J8" s="5">
         <f>+J5-J6+J7</f>
-        <v>95653.063400000014</v>
+        <v>85205.109800000006</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -822,7 +869,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -832,42 +879,42 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="B20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+      <c r="B23" t="s">
         <v>63</v>
       </c>
     </row>
@@ -880,6 +927,6283 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A71B65-CF92-44FB-B121-BCCD522C725B}">
+  <dimension ref="A1:AL162"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1171</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>1295</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1809</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <v>1731</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1215</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
+        <v>1335</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="5">
+        <v>603</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>527</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="5">
+        <v>470</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>524</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3656</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>3914</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5">
+        <v>911</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>824</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5">
+        <v>701</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>674</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3631</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>3734</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5">
+        <v>315</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <v>323</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1322</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <v>1355</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5268</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>5412</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8">
+        <f>+G3/C3-1</f>
+        <v>0.10589239965841157</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8">
+        <f t="shared" ref="G17:G27" si="0">+G4/C4-1</f>
+        <v>-4.3117744610281949E-2</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8">
+        <f t="shared" si="0"/>
+        <v>9.8765432098765427E-2</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.12603648424543945</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11489361702127665</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>7.0568927789934399E-2</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.5499451152579629E-2</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>-3.8516405135520682E-2</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8366841090608608E-2</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5396825396825307E-2</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4962178517397904E-2</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="12">
+        <f t="shared" si="0"/>
+        <v>2.7334851936218652E-2</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+    </row>
+    <row r="33" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+    </row>
+    <row r="34" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+    </row>
+    <row r="35" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+    </row>
+    <row r="36" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+    </row>
+    <row r="37" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+    </row>
+    <row r="38" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+    </row>
+    <row r="39" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+    </row>
+    <row r="40" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+    </row>
+    <row r="41" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+    </row>
+    <row r="42" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+    </row>
+    <row r="43" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+    </row>
+    <row r="44" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+    </row>
+    <row r="45" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+    </row>
+    <row r="46" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+    </row>
+    <row r="47" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+    </row>
+    <row r="48" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+    </row>
+    <row r="49" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+    </row>
+    <row r="50" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+    </row>
+    <row r="51" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+    </row>
+    <row r="52" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+    </row>
+    <row r="53" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+    </row>
+    <row r="54" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+    </row>
+    <row r="55" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+    </row>
+    <row r="56" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+    </row>
+    <row r="57" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+    </row>
+    <row r="58" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+    </row>
+    <row r="59" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+    </row>
+    <row r="60" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+    </row>
+    <row r="61" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5"/>
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5"/>
+    </row>
+    <row r="62" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+    </row>
+    <row r="63" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+    </row>
+    <row r="64" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+    </row>
+    <row r="65" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+    </row>
+    <row r="66" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+    </row>
+    <row r="67" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+    </row>
+    <row r="68" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+    </row>
+    <row r="69" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5"/>
+    </row>
+    <row r="70" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+    </row>
+    <row r="71" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+    </row>
+    <row r="72" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5"/>
+    </row>
+    <row r="73" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5"/>
+      <c r="AK73" s="5"/>
+      <c r="AL73" s="5"/>
+    </row>
+    <row r="74" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+    </row>
+    <row r="75" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+    </row>
+    <row r="76" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="5"/>
+      <c r="AK76" s="5"/>
+      <c r="AL76" s="5"/>
+    </row>
+    <row r="77" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="5"/>
+      <c r="AJ77" s="5"/>
+      <c r="AK77" s="5"/>
+      <c r="AL77" s="5"/>
+    </row>
+    <row r="78" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="5"/>
+      <c r="AK78" s="5"/>
+      <c r="AL78" s="5"/>
+    </row>
+    <row r="79" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="5"/>
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="5"/>
+    </row>
+    <row r="80" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+    </row>
+    <row r="81" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5"/>
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="5"/>
+      <c r="AJ81" s="5"/>
+      <c r="AK81" s="5"/>
+      <c r="AL81" s="5"/>
+    </row>
+    <row r="82" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
+      <c r="AK82" s="5"/>
+      <c r="AL82" s="5"/>
+    </row>
+    <row r="83" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+    </row>
+    <row r="84" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="5"/>
+      <c r="AG84" s="5"/>
+      <c r="AH84" s="5"/>
+      <c r="AI84" s="5"/>
+      <c r="AJ84" s="5"/>
+      <c r="AK84" s="5"/>
+      <c r="AL84" s="5"/>
+    </row>
+    <row r="85" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="5"/>
+      <c r="AF85" s="5"/>
+      <c r="AG85" s="5"/>
+      <c r="AH85" s="5"/>
+      <c r="AI85" s="5"/>
+      <c r="AJ85" s="5"/>
+      <c r="AK85" s="5"/>
+      <c r="AL85" s="5"/>
+    </row>
+    <row r="86" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="5"/>
+      <c r="AG86" s="5"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="5"/>
+      <c r="AJ86" s="5"/>
+      <c r="AK86" s="5"/>
+      <c r="AL86" s="5"/>
+    </row>
+    <row r="87" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5"/>
+      <c r="AG87" s="5"/>
+      <c r="AH87" s="5"/>
+      <c r="AI87" s="5"/>
+      <c r="AJ87" s="5"/>
+      <c r="AK87" s="5"/>
+      <c r="AL87" s="5"/>
+    </row>
+    <row r="88" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5"/>
+      <c r="AG88" s="5"/>
+      <c r="AH88" s="5"/>
+      <c r="AI88" s="5"/>
+      <c r="AJ88" s="5"/>
+      <c r="AK88" s="5"/>
+      <c r="AL88" s="5"/>
+    </row>
+    <row r="89" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="5"/>
+      <c r="AG89" s="5"/>
+      <c r="AH89" s="5"/>
+      <c r="AI89" s="5"/>
+      <c r="AJ89" s="5"/>
+      <c r="AK89" s="5"/>
+      <c r="AL89" s="5"/>
+    </row>
+    <row r="90" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5"/>
+      <c r="AG90" s="5"/>
+      <c r="AH90" s="5"/>
+      <c r="AI90" s="5"/>
+      <c r="AJ90" s="5"/>
+      <c r="AK90" s="5"/>
+      <c r="AL90" s="5"/>
+    </row>
+    <row r="91" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+      <c r="AE91" s="5"/>
+      <c r="AF91" s="5"/>
+      <c r="AG91" s="5"/>
+      <c r="AH91" s="5"/>
+      <c r="AI91" s="5"/>
+      <c r="AJ91" s="5"/>
+      <c r="AK91" s="5"/>
+      <c r="AL91" s="5"/>
+    </row>
+    <row r="92" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="5"/>
+      <c r="AG92" s="5"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="5"/>
+      <c r="AJ92" s="5"/>
+      <c r="AK92" s="5"/>
+      <c r="AL92" s="5"/>
+    </row>
+    <row r="93" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="5"/>
+      <c r="AF93" s="5"/>
+      <c r="AG93" s="5"/>
+      <c r="AH93" s="5"/>
+      <c r="AI93" s="5"/>
+      <c r="AJ93" s="5"/>
+      <c r="AK93" s="5"/>
+      <c r="AL93" s="5"/>
+    </row>
+    <row r="94" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+      <c r="AG94" s="5"/>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="5"/>
+      <c r="AJ94" s="5"/>
+      <c r="AK94" s="5"/>
+      <c r="AL94" s="5"/>
+    </row>
+    <row r="95" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="5"/>
+      <c r="AG95" s="5"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+      <c r="AJ95" s="5"/>
+      <c r="AK95" s="5"/>
+      <c r="AL95" s="5"/>
+    </row>
+    <row r="96" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5"/>
+      <c r="AG96" s="5"/>
+      <c r="AH96" s="5"/>
+      <c r="AI96" s="5"/>
+      <c r="AJ96" s="5"/>
+      <c r="AK96" s="5"/>
+      <c r="AL96" s="5"/>
+    </row>
+    <row r="97" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
+      <c r="AE97" s="5"/>
+      <c r="AF97" s="5"/>
+      <c r="AG97" s="5"/>
+      <c r="AH97" s="5"/>
+      <c r="AI97" s="5"/>
+      <c r="AJ97" s="5"/>
+      <c r="AK97" s="5"/>
+      <c r="AL97" s="5"/>
+    </row>
+    <row r="98" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="5"/>
+      <c r="AG98" s="5"/>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="5"/>
+      <c r="AJ98" s="5"/>
+      <c r="AK98" s="5"/>
+      <c r="AL98" s="5"/>
+    </row>
+    <row r="99" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+      <c r="AG99" s="5"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+      <c r="AJ99" s="5"/>
+      <c r="AK99" s="5"/>
+      <c r="AL99" s="5"/>
+    </row>
+    <row r="100" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+      <c r="AE100" s="5"/>
+      <c r="AF100" s="5"/>
+      <c r="AG100" s="5"/>
+      <c r="AH100" s="5"/>
+      <c r="AI100" s="5"/>
+      <c r="AJ100" s="5"/>
+      <c r="AK100" s="5"/>
+      <c r="AL100" s="5"/>
+    </row>
+    <row r="101" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
+      <c r="Y101" s="5"/>
+      <c r="Z101" s="5"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="5"/>
+      <c r="AG101" s="5"/>
+      <c r="AH101" s="5"/>
+      <c r="AI101" s="5"/>
+      <c r="AJ101" s="5"/>
+      <c r="AK101" s="5"/>
+      <c r="AL101" s="5"/>
+    </row>
+    <row r="102" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5"/>
+      <c r="AG102" s="5"/>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="5"/>
+      <c r="AJ102" s="5"/>
+      <c r="AK102" s="5"/>
+      <c r="AL102" s="5"/>
+    </row>
+    <row r="103" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5"/>
+      <c r="AG103" s="5"/>
+      <c r="AH103" s="5"/>
+      <c r="AI103" s="5"/>
+      <c r="AJ103" s="5"/>
+      <c r="AK103" s="5"/>
+      <c r="AL103" s="5"/>
+    </row>
+    <row r="104" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
+      <c r="X104" s="5"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5"/>
+      <c r="AG104" s="5"/>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="5"/>
+      <c r="AJ104" s="5"/>
+      <c r="AK104" s="5"/>
+      <c r="AL104" s="5"/>
+    </row>
+    <row r="105" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="5"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="5"/>
+      <c r="AG105" s="5"/>
+      <c r="AH105" s="5"/>
+      <c r="AI105" s="5"/>
+      <c r="AJ105" s="5"/>
+      <c r="AK105" s="5"/>
+      <c r="AL105" s="5"/>
+    </row>
+    <row r="106" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="5"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="5"/>
+      <c r="AG106" s="5"/>
+      <c r="AH106" s="5"/>
+      <c r="AI106" s="5"/>
+      <c r="AJ106" s="5"/>
+      <c r="AK106" s="5"/>
+      <c r="AL106" s="5"/>
+    </row>
+    <row r="107" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="5"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="5"/>
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="5"/>
+      <c r="AG107" s="5"/>
+      <c r="AH107" s="5"/>
+      <c r="AI107" s="5"/>
+      <c r="AJ107" s="5"/>
+      <c r="AK107" s="5"/>
+      <c r="AL107" s="5"/>
+    </row>
+    <row r="108" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="5"/>
+      <c r="Y108" s="5"/>
+      <c r="Z108" s="5"/>
+      <c r="AA108" s="5"/>
+      <c r="AB108" s="5"/>
+      <c r="AC108" s="5"/>
+      <c r="AD108" s="5"/>
+      <c r="AE108" s="5"/>
+      <c r="AF108" s="5"/>
+      <c r="AG108" s="5"/>
+      <c r="AH108" s="5"/>
+      <c r="AI108" s="5"/>
+      <c r="AJ108" s="5"/>
+      <c r="AK108" s="5"/>
+      <c r="AL108" s="5"/>
+    </row>
+    <row r="109" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="5"/>
+      <c r="X109" s="5"/>
+      <c r="Y109" s="5"/>
+      <c r="Z109" s="5"/>
+      <c r="AA109" s="5"/>
+      <c r="AB109" s="5"/>
+      <c r="AC109" s="5"/>
+      <c r="AD109" s="5"/>
+      <c r="AE109" s="5"/>
+      <c r="AF109" s="5"/>
+      <c r="AG109" s="5"/>
+      <c r="AH109" s="5"/>
+      <c r="AI109" s="5"/>
+      <c r="AJ109" s="5"/>
+      <c r="AK109" s="5"/>
+      <c r="AL109" s="5"/>
+    </row>
+    <row r="110" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5"/>
+      <c r="W110" s="5"/>
+      <c r="X110" s="5"/>
+      <c r="Y110" s="5"/>
+      <c r="Z110" s="5"/>
+      <c r="AA110" s="5"/>
+      <c r="AB110" s="5"/>
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5"/>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="5"/>
+      <c r="AG110" s="5"/>
+      <c r="AH110" s="5"/>
+      <c r="AI110" s="5"/>
+      <c r="AJ110" s="5"/>
+      <c r="AK110" s="5"/>
+      <c r="AL110" s="5"/>
+    </row>
+    <row r="111" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
+      <c r="W111" s="5"/>
+      <c r="X111" s="5"/>
+      <c r="Y111" s="5"/>
+      <c r="Z111" s="5"/>
+      <c r="AA111" s="5"/>
+      <c r="AB111" s="5"/>
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="5"/>
+      <c r="AE111" s="5"/>
+      <c r="AF111" s="5"/>
+      <c r="AG111" s="5"/>
+      <c r="AH111" s="5"/>
+      <c r="AI111" s="5"/>
+      <c r="AJ111" s="5"/>
+      <c r="AK111" s="5"/>
+      <c r="AL111" s="5"/>
+    </row>
+    <row r="112" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="5"/>
+      <c r="V112" s="5"/>
+      <c r="W112" s="5"/>
+      <c r="X112" s="5"/>
+      <c r="Y112" s="5"/>
+      <c r="Z112" s="5"/>
+      <c r="AA112" s="5"/>
+      <c r="AB112" s="5"/>
+      <c r="AC112" s="5"/>
+      <c r="AD112" s="5"/>
+      <c r="AE112" s="5"/>
+      <c r="AF112" s="5"/>
+      <c r="AG112" s="5"/>
+      <c r="AH112" s="5"/>
+      <c r="AI112" s="5"/>
+      <c r="AJ112" s="5"/>
+      <c r="AK112" s="5"/>
+      <c r="AL112" s="5"/>
+    </row>
+    <row r="113" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="5"/>
+      <c r="AG113" s="5"/>
+      <c r="AH113" s="5"/>
+      <c r="AI113" s="5"/>
+      <c r="AJ113" s="5"/>
+      <c r="AK113" s="5"/>
+      <c r="AL113" s="5"/>
+    </row>
+    <row r="114" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="5"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+      <c r="AE114" s="5"/>
+      <c r="AF114" s="5"/>
+      <c r="AG114" s="5"/>
+      <c r="AH114" s="5"/>
+      <c r="AI114" s="5"/>
+      <c r="AJ114" s="5"/>
+      <c r="AK114" s="5"/>
+      <c r="AL114" s="5"/>
+    </row>
+    <row r="115" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5"/>
+      <c r="V115" s="5"/>
+      <c r="W115" s="5"/>
+      <c r="X115" s="5"/>
+      <c r="Y115" s="5"/>
+      <c r="Z115" s="5"/>
+      <c r="AA115" s="5"/>
+      <c r="AB115" s="5"/>
+      <c r="AC115" s="5"/>
+      <c r="AD115" s="5"/>
+      <c r="AE115" s="5"/>
+      <c r="AF115" s="5"/>
+      <c r="AG115" s="5"/>
+      <c r="AH115" s="5"/>
+      <c r="AI115" s="5"/>
+      <c r="AJ115" s="5"/>
+      <c r="AK115" s="5"/>
+      <c r="AL115" s="5"/>
+    </row>
+    <row r="116" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="V116" s="5"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5"/>
+      <c r="Y116" s="5"/>
+      <c r="Z116" s="5"/>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="5"/>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="5"/>
+      <c r="AE116" s="5"/>
+      <c r="AF116" s="5"/>
+      <c r="AG116" s="5"/>
+      <c r="AH116" s="5"/>
+      <c r="AI116" s="5"/>
+      <c r="AJ116" s="5"/>
+      <c r="AK116" s="5"/>
+      <c r="AL116" s="5"/>
+    </row>
+    <row r="117" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="5"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="5"/>
+      <c r="V117" s="5"/>
+      <c r="W117" s="5"/>
+      <c r="X117" s="5"/>
+      <c r="Y117" s="5"/>
+      <c r="Z117" s="5"/>
+      <c r="AA117" s="5"/>
+      <c r="AB117" s="5"/>
+      <c r="AC117" s="5"/>
+      <c r="AD117" s="5"/>
+      <c r="AE117" s="5"/>
+      <c r="AF117" s="5"/>
+      <c r="AG117" s="5"/>
+      <c r="AH117" s="5"/>
+      <c r="AI117" s="5"/>
+      <c r="AJ117" s="5"/>
+      <c r="AK117" s="5"/>
+      <c r="AL117" s="5"/>
+    </row>
+    <row r="118" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+      <c r="V118" s="5"/>
+      <c r="W118" s="5"/>
+      <c r="X118" s="5"/>
+      <c r="Y118" s="5"/>
+      <c r="Z118" s="5"/>
+      <c r="AA118" s="5"/>
+      <c r="AB118" s="5"/>
+      <c r="AC118" s="5"/>
+      <c r="AD118" s="5"/>
+      <c r="AE118" s="5"/>
+      <c r="AF118" s="5"/>
+      <c r="AG118" s="5"/>
+      <c r="AH118" s="5"/>
+      <c r="AI118" s="5"/>
+      <c r="AJ118" s="5"/>
+      <c r="AK118" s="5"/>
+      <c r="AL118" s="5"/>
+    </row>
+    <row r="119" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+      <c r="V119" s="5"/>
+      <c r="W119" s="5"/>
+      <c r="X119" s="5"/>
+      <c r="Y119" s="5"/>
+      <c r="Z119" s="5"/>
+      <c r="AA119" s="5"/>
+      <c r="AB119" s="5"/>
+      <c r="AC119" s="5"/>
+      <c r="AD119" s="5"/>
+      <c r="AE119" s="5"/>
+      <c r="AF119" s="5"/>
+      <c r="AG119" s="5"/>
+      <c r="AH119" s="5"/>
+      <c r="AI119" s="5"/>
+      <c r="AJ119" s="5"/>
+      <c r="AK119" s="5"/>
+      <c r="AL119" s="5"/>
+    </row>
+    <row r="120" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
+      <c r="V120" s="5"/>
+      <c r="W120" s="5"/>
+      <c r="X120" s="5"/>
+      <c r="Y120" s="5"/>
+      <c r="Z120" s="5"/>
+      <c r="AA120" s="5"/>
+      <c r="AB120" s="5"/>
+      <c r="AC120" s="5"/>
+      <c r="AD120" s="5"/>
+      <c r="AE120" s="5"/>
+      <c r="AF120" s="5"/>
+      <c r="AG120" s="5"/>
+      <c r="AH120" s="5"/>
+      <c r="AI120" s="5"/>
+      <c r="AJ120" s="5"/>
+      <c r="AK120" s="5"/>
+      <c r="AL120" s="5"/>
+    </row>
+    <row r="121" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="5"/>
+      <c r="AE121" s="5"/>
+      <c r="AF121" s="5"/>
+      <c r="AG121" s="5"/>
+      <c r="AH121" s="5"/>
+      <c r="AI121" s="5"/>
+      <c r="AJ121" s="5"/>
+      <c r="AK121" s="5"/>
+      <c r="AL121" s="5"/>
+    </row>
+    <row r="122" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
+      <c r="Y122" s="5"/>
+      <c r="Z122" s="5"/>
+      <c r="AA122" s="5"/>
+      <c r="AB122" s="5"/>
+      <c r="AC122" s="5"/>
+      <c r="AD122" s="5"/>
+      <c r="AE122" s="5"/>
+      <c r="AF122" s="5"/>
+      <c r="AG122" s="5"/>
+      <c r="AH122" s="5"/>
+      <c r="AI122" s="5"/>
+      <c r="AJ122" s="5"/>
+      <c r="AK122" s="5"/>
+      <c r="AL122" s="5"/>
+    </row>
+    <row r="123" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+      <c r="W123" s="5"/>
+      <c r="X123" s="5"/>
+      <c r="Y123" s="5"/>
+      <c r="Z123" s="5"/>
+      <c r="AA123" s="5"/>
+      <c r="AB123" s="5"/>
+      <c r="AC123" s="5"/>
+      <c r="AD123" s="5"/>
+      <c r="AE123" s="5"/>
+      <c r="AF123" s="5"/>
+      <c r="AG123" s="5"/>
+      <c r="AH123" s="5"/>
+      <c r="AI123" s="5"/>
+      <c r="AJ123" s="5"/>
+      <c r="AK123" s="5"/>
+      <c r="AL123" s="5"/>
+    </row>
+    <row r="124" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="5"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="5"/>
+      <c r="W124" s="5"/>
+      <c r="X124" s="5"/>
+      <c r="Y124" s="5"/>
+      <c r="Z124" s="5"/>
+      <c r="AA124" s="5"/>
+      <c r="AB124" s="5"/>
+      <c r="AC124" s="5"/>
+      <c r="AD124" s="5"/>
+      <c r="AE124" s="5"/>
+      <c r="AF124" s="5"/>
+      <c r="AG124" s="5"/>
+      <c r="AH124" s="5"/>
+      <c r="AI124" s="5"/>
+      <c r="AJ124" s="5"/>
+      <c r="AK124" s="5"/>
+      <c r="AL124" s="5"/>
+    </row>
+    <row r="125" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5"/>
+      <c r="V125" s="5"/>
+      <c r="W125" s="5"/>
+      <c r="X125" s="5"/>
+      <c r="Y125" s="5"/>
+      <c r="Z125" s="5"/>
+      <c r="AA125" s="5"/>
+      <c r="AB125" s="5"/>
+      <c r="AC125" s="5"/>
+      <c r="AD125" s="5"/>
+      <c r="AE125" s="5"/>
+      <c r="AF125" s="5"/>
+      <c r="AG125" s="5"/>
+      <c r="AH125" s="5"/>
+      <c r="AI125" s="5"/>
+      <c r="AJ125" s="5"/>
+      <c r="AK125" s="5"/>
+      <c r="AL125" s="5"/>
+    </row>
+    <row r="126" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
+      <c r="W126" s="5"/>
+      <c r="X126" s="5"/>
+      <c r="Y126" s="5"/>
+      <c r="Z126" s="5"/>
+      <c r="AA126" s="5"/>
+      <c r="AB126" s="5"/>
+      <c r="AC126" s="5"/>
+      <c r="AD126" s="5"/>
+      <c r="AE126" s="5"/>
+      <c r="AF126" s="5"/>
+      <c r="AG126" s="5"/>
+      <c r="AH126" s="5"/>
+      <c r="AI126" s="5"/>
+      <c r="AJ126" s="5"/>
+      <c r="AK126" s="5"/>
+      <c r="AL126" s="5"/>
+    </row>
+    <row r="127" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5"/>
+      <c r="V127" s="5"/>
+      <c r="W127" s="5"/>
+      <c r="X127" s="5"/>
+      <c r="Y127" s="5"/>
+      <c r="Z127" s="5"/>
+      <c r="AA127" s="5"/>
+      <c r="AB127" s="5"/>
+      <c r="AC127" s="5"/>
+      <c r="AD127" s="5"/>
+      <c r="AE127" s="5"/>
+      <c r="AF127" s="5"/>
+      <c r="AG127" s="5"/>
+      <c r="AH127" s="5"/>
+      <c r="AI127" s="5"/>
+      <c r="AJ127" s="5"/>
+      <c r="AK127" s="5"/>
+      <c r="AL127" s="5"/>
+    </row>
+    <row r="128" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
+      <c r="X128" s="5"/>
+      <c r="Y128" s="5"/>
+      <c r="Z128" s="5"/>
+      <c r="AA128" s="5"/>
+      <c r="AB128" s="5"/>
+      <c r="AC128" s="5"/>
+      <c r="AD128" s="5"/>
+      <c r="AE128" s="5"/>
+      <c r="AF128" s="5"/>
+      <c r="AG128" s="5"/>
+      <c r="AH128" s="5"/>
+      <c r="AI128" s="5"/>
+      <c r="AJ128" s="5"/>
+      <c r="AK128" s="5"/>
+      <c r="AL128" s="5"/>
+    </row>
+    <row r="129" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5"/>
+      <c r="V129" s="5"/>
+      <c r="W129" s="5"/>
+      <c r="X129" s="5"/>
+      <c r="Y129" s="5"/>
+      <c r="Z129" s="5"/>
+      <c r="AA129" s="5"/>
+      <c r="AB129" s="5"/>
+      <c r="AC129" s="5"/>
+      <c r="AD129" s="5"/>
+      <c r="AE129" s="5"/>
+      <c r="AF129" s="5"/>
+      <c r="AG129" s="5"/>
+      <c r="AH129" s="5"/>
+      <c r="AI129" s="5"/>
+      <c r="AJ129" s="5"/>
+      <c r="AK129" s="5"/>
+      <c r="AL129" s="5"/>
+    </row>
+    <row r="130" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5"/>
+      <c r="S130" s="5"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5"/>
+      <c r="V130" s="5"/>
+      <c r="W130" s="5"/>
+      <c r="X130" s="5"/>
+      <c r="Y130" s="5"/>
+      <c r="Z130" s="5"/>
+      <c r="AA130" s="5"/>
+      <c r="AB130" s="5"/>
+      <c r="AC130" s="5"/>
+      <c r="AD130" s="5"/>
+      <c r="AE130" s="5"/>
+      <c r="AF130" s="5"/>
+      <c r="AG130" s="5"/>
+      <c r="AH130" s="5"/>
+      <c r="AI130" s="5"/>
+      <c r="AJ130" s="5"/>
+      <c r="AK130" s="5"/>
+      <c r="AL130" s="5"/>
+    </row>
+    <row r="131" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5"/>
+      <c r="V131" s="5"/>
+      <c r="W131" s="5"/>
+      <c r="X131" s="5"/>
+      <c r="Y131" s="5"/>
+      <c r="Z131" s="5"/>
+      <c r="AA131" s="5"/>
+      <c r="AB131" s="5"/>
+      <c r="AC131" s="5"/>
+      <c r="AD131" s="5"/>
+      <c r="AE131" s="5"/>
+      <c r="AF131" s="5"/>
+      <c r="AG131" s="5"/>
+      <c r="AH131" s="5"/>
+      <c r="AI131" s="5"/>
+      <c r="AJ131" s="5"/>
+      <c r="AK131" s="5"/>
+      <c r="AL131" s="5"/>
+    </row>
+    <row r="132" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="5"/>
+      <c r="S132" s="5"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="5"/>
+      <c r="V132" s="5"/>
+      <c r="W132" s="5"/>
+      <c r="X132" s="5"/>
+      <c r="Y132" s="5"/>
+      <c r="Z132" s="5"/>
+      <c r="AA132" s="5"/>
+      <c r="AB132" s="5"/>
+      <c r="AC132" s="5"/>
+      <c r="AD132" s="5"/>
+      <c r="AE132" s="5"/>
+      <c r="AF132" s="5"/>
+      <c r="AG132" s="5"/>
+      <c r="AH132" s="5"/>
+      <c r="AI132" s="5"/>
+      <c r="AJ132" s="5"/>
+      <c r="AK132" s="5"/>
+      <c r="AL132" s="5"/>
+    </row>
+    <row r="133" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5"/>
+      <c r="V133" s="5"/>
+      <c r="W133" s="5"/>
+      <c r="X133" s="5"/>
+      <c r="Y133" s="5"/>
+      <c r="Z133" s="5"/>
+      <c r="AA133" s="5"/>
+      <c r="AB133" s="5"/>
+      <c r="AC133" s="5"/>
+      <c r="AD133" s="5"/>
+      <c r="AE133" s="5"/>
+      <c r="AF133" s="5"/>
+      <c r="AG133" s="5"/>
+      <c r="AH133" s="5"/>
+      <c r="AI133" s="5"/>
+      <c r="AJ133" s="5"/>
+      <c r="AK133" s="5"/>
+      <c r="AL133" s="5"/>
+    </row>
+    <row r="134" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="5"/>
+      <c r="S134" s="5"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="5"/>
+      <c r="V134" s="5"/>
+      <c r="W134" s="5"/>
+      <c r="X134" s="5"/>
+      <c r="Y134" s="5"/>
+      <c r="Z134" s="5"/>
+      <c r="AA134" s="5"/>
+      <c r="AB134" s="5"/>
+      <c r="AC134" s="5"/>
+      <c r="AD134" s="5"/>
+      <c r="AE134" s="5"/>
+      <c r="AF134" s="5"/>
+      <c r="AG134" s="5"/>
+      <c r="AH134" s="5"/>
+      <c r="AI134" s="5"/>
+      <c r="AJ134" s="5"/>
+      <c r="AK134" s="5"/>
+      <c r="AL134" s="5"/>
+    </row>
+    <row r="135" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5"/>
+      <c r="V135" s="5"/>
+      <c r="W135" s="5"/>
+      <c r="X135" s="5"/>
+      <c r="Y135" s="5"/>
+      <c r="Z135" s="5"/>
+      <c r="AA135" s="5"/>
+      <c r="AB135" s="5"/>
+      <c r="AC135" s="5"/>
+      <c r="AD135" s="5"/>
+      <c r="AE135" s="5"/>
+      <c r="AF135" s="5"/>
+      <c r="AG135" s="5"/>
+      <c r="AH135" s="5"/>
+      <c r="AI135" s="5"/>
+      <c r="AJ135" s="5"/>
+      <c r="AK135" s="5"/>
+      <c r="AL135" s="5"/>
+    </row>
+    <row r="136" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5"/>
+      <c r="V136" s="5"/>
+      <c r="W136" s="5"/>
+      <c r="X136" s="5"/>
+      <c r="Y136" s="5"/>
+      <c r="Z136" s="5"/>
+      <c r="AA136" s="5"/>
+      <c r="AB136" s="5"/>
+      <c r="AC136" s="5"/>
+      <c r="AD136" s="5"/>
+      <c r="AE136" s="5"/>
+      <c r="AF136" s="5"/>
+      <c r="AG136" s="5"/>
+      <c r="AH136" s="5"/>
+      <c r="AI136" s="5"/>
+      <c r="AJ136" s="5"/>
+      <c r="AK136" s="5"/>
+      <c r="AL136" s="5"/>
+    </row>
+    <row r="137" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+      <c r="V137" s="5"/>
+      <c r="W137" s="5"/>
+      <c r="X137" s="5"/>
+      <c r="Y137" s="5"/>
+      <c r="Z137" s="5"/>
+      <c r="AA137" s="5"/>
+      <c r="AB137" s="5"/>
+      <c r="AC137" s="5"/>
+      <c r="AD137" s="5"/>
+      <c r="AE137" s="5"/>
+      <c r="AF137" s="5"/>
+      <c r="AG137" s="5"/>
+      <c r="AH137" s="5"/>
+      <c r="AI137" s="5"/>
+      <c r="AJ137" s="5"/>
+      <c r="AK137" s="5"/>
+      <c r="AL137" s="5"/>
+    </row>
+    <row r="138" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="5"/>
+      <c r="S138" s="5"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5"/>
+      <c r="V138" s="5"/>
+      <c r="W138" s="5"/>
+      <c r="X138" s="5"/>
+      <c r="Y138" s="5"/>
+      <c r="Z138" s="5"/>
+      <c r="AA138" s="5"/>
+      <c r="AB138" s="5"/>
+      <c r="AC138" s="5"/>
+      <c r="AD138" s="5"/>
+      <c r="AE138" s="5"/>
+      <c r="AF138" s="5"/>
+      <c r="AG138" s="5"/>
+      <c r="AH138" s="5"/>
+      <c r="AI138" s="5"/>
+      <c r="AJ138" s="5"/>
+      <c r="AK138" s="5"/>
+      <c r="AL138" s="5"/>
+    </row>
+    <row r="139" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5"/>
+      <c r="V139" s="5"/>
+      <c r="W139" s="5"/>
+      <c r="X139" s="5"/>
+      <c r="Y139" s="5"/>
+      <c r="Z139" s="5"/>
+      <c r="AA139" s="5"/>
+      <c r="AB139" s="5"/>
+      <c r="AC139" s="5"/>
+      <c r="AD139" s="5"/>
+      <c r="AE139" s="5"/>
+      <c r="AF139" s="5"/>
+      <c r="AG139" s="5"/>
+      <c r="AH139" s="5"/>
+      <c r="AI139" s="5"/>
+      <c r="AJ139" s="5"/>
+      <c r="AK139" s="5"/>
+      <c r="AL139" s="5"/>
+    </row>
+    <row r="140" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
+      <c r="R140" s="5"/>
+      <c r="S140" s="5"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="5"/>
+      <c r="V140" s="5"/>
+      <c r="W140" s="5"/>
+      <c r="X140" s="5"/>
+      <c r="Y140" s="5"/>
+      <c r="Z140" s="5"/>
+      <c r="AA140" s="5"/>
+      <c r="AB140" s="5"/>
+      <c r="AC140" s="5"/>
+      <c r="AD140" s="5"/>
+      <c r="AE140" s="5"/>
+      <c r="AF140" s="5"/>
+      <c r="AG140" s="5"/>
+      <c r="AH140" s="5"/>
+      <c r="AI140" s="5"/>
+      <c r="AJ140" s="5"/>
+      <c r="AK140" s="5"/>
+      <c r="AL140" s="5"/>
+    </row>
+    <row r="141" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="5"/>
+      <c r="S141" s="5"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="5"/>
+      <c r="V141" s="5"/>
+      <c r="W141" s="5"/>
+      <c r="X141" s="5"/>
+      <c r="Y141" s="5"/>
+      <c r="Z141" s="5"/>
+      <c r="AA141" s="5"/>
+      <c r="AB141" s="5"/>
+      <c r="AC141" s="5"/>
+      <c r="AD141" s="5"/>
+      <c r="AE141" s="5"/>
+      <c r="AF141" s="5"/>
+      <c r="AG141" s="5"/>
+      <c r="AH141" s="5"/>
+      <c r="AI141" s="5"/>
+      <c r="AJ141" s="5"/>
+      <c r="AK141" s="5"/>
+      <c r="AL141" s="5"/>
+    </row>
+    <row r="142" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
+      <c r="AE142" s="5"/>
+      <c r="AF142" s="5"/>
+      <c r="AG142" s="5"/>
+      <c r="AH142" s="5"/>
+      <c r="AI142" s="5"/>
+      <c r="AJ142" s="5"/>
+      <c r="AK142" s="5"/>
+      <c r="AL142" s="5"/>
+    </row>
+    <row r="143" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+      <c r="AB143" s="5"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
+      <c r="AE143" s="5"/>
+      <c r="AF143" s="5"/>
+      <c r="AG143" s="5"/>
+      <c r="AH143" s="5"/>
+      <c r="AI143" s="5"/>
+      <c r="AJ143" s="5"/>
+      <c r="AK143" s="5"/>
+      <c r="AL143" s="5"/>
+    </row>
+    <row r="144" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="5"/>
+      <c r="AA144" s="5"/>
+      <c r="AB144" s="5"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="5"/>
+      <c r="AE144" s="5"/>
+      <c r="AF144" s="5"/>
+      <c r="AG144" s="5"/>
+      <c r="AH144" s="5"/>
+      <c r="AI144" s="5"/>
+      <c r="AJ144" s="5"/>
+      <c r="AK144" s="5"/>
+      <c r="AL144" s="5"/>
+    </row>
+    <row r="145" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+      <c r="Z145" s="5"/>
+      <c r="AA145" s="5"/>
+      <c r="AB145" s="5"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="5"/>
+      <c r="AE145" s="5"/>
+      <c r="AF145" s="5"/>
+      <c r="AG145" s="5"/>
+      <c r="AH145" s="5"/>
+      <c r="AI145" s="5"/>
+      <c r="AJ145" s="5"/>
+      <c r="AK145" s="5"/>
+      <c r="AL145" s="5"/>
+    </row>
+    <row r="146" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="5"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
+      <c r="Y146" s="5"/>
+      <c r="Z146" s="5"/>
+      <c r="AA146" s="5"/>
+      <c r="AB146" s="5"/>
+      <c r="AC146" s="5"/>
+      <c r="AD146" s="5"/>
+      <c r="AE146" s="5"/>
+      <c r="AF146" s="5"/>
+      <c r="AG146" s="5"/>
+      <c r="AH146" s="5"/>
+      <c r="AI146" s="5"/>
+      <c r="AJ146" s="5"/>
+      <c r="AK146" s="5"/>
+      <c r="AL146" s="5"/>
+    </row>
+    <row r="147" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="5"/>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
+      <c r="Y147" s="5"/>
+      <c r="Z147" s="5"/>
+      <c r="AA147" s="5"/>
+      <c r="AB147" s="5"/>
+      <c r="AC147" s="5"/>
+      <c r="AD147" s="5"/>
+      <c r="AE147" s="5"/>
+      <c r="AF147" s="5"/>
+      <c r="AG147" s="5"/>
+      <c r="AH147" s="5"/>
+      <c r="AI147" s="5"/>
+      <c r="AJ147" s="5"/>
+      <c r="AK147" s="5"/>
+      <c r="AL147" s="5"/>
+    </row>
+    <row r="148" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="5"/>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+      <c r="Z148" s="5"/>
+      <c r="AA148" s="5"/>
+      <c r="AB148" s="5"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="5"/>
+      <c r="AE148" s="5"/>
+      <c r="AF148" s="5"/>
+      <c r="AG148" s="5"/>
+      <c r="AH148" s="5"/>
+      <c r="AI148" s="5"/>
+      <c r="AJ148" s="5"/>
+      <c r="AK148" s="5"/>
+      <c r="AL148" s="5"/>
+    </row>
+    <row r="149" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5"/>
+      <c r="V149" s="5"/>
+      <c r="W149" s="5"/>
+      <c r="X149" s="5"/>
+      <c r="Y149" s="5"/>
+      <c r="Z149" s="5"/>
+      <c r="AA149" s="5"/>
+      <c r="AB149" s="5"/>
+      <c r="AC149" s="5"/>
+      <c r="AD149" s="5"/>
+      <c r="AE149" s="5"/>
+      <c r="AF149" s="5"/>
+      <c r="AG149" s="5"/>
+      <c r="AH149" s="5"/>
+      <c r="AI149" s="5"/>
+      <c r="AJ149" s="5"/>
+      <c r="AK149" s="5"/>
+      <c r="AL149" s="5"/>
+    </row>
+    <row r="150" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
+      <c r="W150" s="5"/>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+      <c r="AA150" s="5"/>
+      <c r="AB150" s="5"/>
+      <c r="AC150" s="5"/>
+      <c r="AD150" s="5"/>
+      <c r="AE150" s="5"/>
+      <c r="AF150" s="5"/>
+      <c r="AG150" s="5"/>
+      <c r="AH150" s="5"/>
+      <c r="AI150" s="5"/>
+      <c r="AJ150" s="5"/>
+      <c r="AK150" s="5"/>
+      <c r="AL150" s="5"/>
+    </row>
+    <row r="151" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="5"/>
+      <c r="W151" s="5"/>
+      <c r="X151" s="5"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="5"/>
+      <c r="AA151" s="5"/>
+      <c r="AB151" s="5"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="5"/>
+      <c r="AE151" s="5"/>
+      <c r="AF151" s="5"/>
+      <c r="AG151" s="5"/>
+      <c r="AH151" s="5"/>
+      <c r="AI151" s="5"/>
+      <c r="AJ151" s="5"/>
+      <c r="AK151" s="5"/>
+      <c r="AL151" s="5"/>
+    </row>
+    <row r="152" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
+      <c r="AB152" s="5"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="5"/>
+      <c r="AE152" s="5"/>
+      <c r="AF152" s="5"/>
+      <c r="AG152" s="5"/>
+      <c r="AH152" s="5"/>
+      <c r="AI152" s="5"/>
+      <c r="AJ152" s="5"/>
+      <c r="AK152" s="5"/>
+      <c r="AL152" s="5"/>
+    </row>
+    <row r="153" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+      <c r="V153" s="5"/>
+      <c r="W153" s="5"/>
+      <c r="X153" s="5"/>
+      <c r="Y153" s="5"/>
+      <c r="Z153" s="5"/>
+      <c r="AA153" s="5"/>
+      <c r="AB153" s="5"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="5"/>
+      <c r="AE153" s="5"/>
+      <c r="AF153" s="5"/>
+      <c r="AG153" s="5"/>
+      <c r="AH153" s="5"/>
+      <c r="AI153" s="5"/>
+      <c r="AJ153" s="5"/>
+      <c r="AK153" s="5"/>
+      <c r="AL153" s="5"/>
+    </row>
+    <row r="154" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+      <c r="V154" s="5"/>
+      <c r="W154" s="5"/>
+      <c r="X154" s="5"/>
+      <c r="Y154" s="5"/>
+      <c r="Z154" s="5"/>
+      <c r="AA154" s="5"/>
+      <c r="AB154" s="5"/>
+      <c r="AC154" s="5"/>
+      <c r="AD154" s="5"/>
+      <c r="AE154" s="5"/>
+      <c r="AF154" s="5"/>
+      <c r="AG154" s="5"/>
+      <c r="AH154" s="5"/>
+      <c r="AI154" s="5"/>
+      <c r="AJ154" s="5"/>
+      <c r="AK154" s="5"/>
+      <c r="AL154" s="5"/>
+    </row>
+    <row r="155" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+      <c r="V155" s="5"/>
+      <c r="W155" s="5"/>
+      <c r="X155" s="5"/>
+      <c r="Y155" s="5"/>
+      <c r="Z155" s="5"/>
+      <c r="AA155" s="5"/>
+      <c r="AB155" s="5"/>
+      <c r="AC155" s="5"/>
+      <c r="AD155" s="5"/>
+      <c r="AE155" s="5"/>
+      <c r="AF155" s="5"/>
+      <c r="AG155" s="5"/>
+      <c r="AH155" s="5"/>
+      <c r="AI155" s="5"/>
+      <c r="AJ155" s="5"/>
+      <c r="AK155" s="5"/>
+      <c r="AL155" s="5"/>
+    </row>
+    <row r="156" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5"/>
+      <c r="V156" s="5"/>
+      <c r="W156" s="5"/>
+      <c r="X156" s="5"/>
+      <c r="Y156" s="5"/>
+      <c r="Z156" s="5"/>
+      <c r="AA156" s="5"/>
+      <c r="AB156" s="5"/>
+      <c r="AC156" s="5"/>
+      <c r="AD156" s="5"/>
+      <c r="AE156" s="5"/>
+      <c r="AF156" s="5"/>
+      <c r="AG156" s="5"/>
+      <c r="AH156" s="5"/>
+      <c r="AI156" s="5"/>
+      <c r="AJ156" s="5"/>
+      <c r="AK156" s="5"/>
+      <c r="AL156" s="5"/>
+    </row>
+    <row r="157" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5"/>
+      <c r="V157" s="5"/>
+      <c r="W157" s="5"/>
+      <c r="X157" s="5"/>
+      <c r="Y157" s="5"/>
+      <c r="Z157" s="5"/>
+      <c r="AA157" s="5"/>
+      <c r="AB157" s="5"/>
+      <c r="AC157" s="5"/>
+      <c r="AD157" s="5"/>
+      <c r="AE157" s="5"/>
+      <c r="AF157" s="5"/>
+      <c r="AG157" s="5"/>
+      <c r="AH157" s="5"/>
+      <c r="AI157" s="5"/>
+      <c r="AJ157" s="5"/>
+      <c r="AK157" s="5"/>
+      <c r="AL157" s="5"/>
+    </row>
+    <row r="158" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5"/>
+      <c r="V158" s="5"/>
+      <c r="W158" s="5"/>
+      <c r="X158" s="5"/>
+      <c r="Y158" s="5"/>
+      <c r="Z158" s="5"/>
+      <c r="AA158" s="5"/>
+      <c r="AB158" s="5"/>
+      <c r="AC158" s="5"/>
+      <c r="AD158" s="5"/>
+      <c r="AE158" s="5"/>
+      <c r="AF158" s="5"/>
+      <c r="AG158" s="5"/>
+      <c r="AH158" s="5"/>
+      <c r="AI158" s="5"/>
+      <c r="AJ158" s="5"/>
+      <c r="AK158" s="5"/>
+      <c r="AL158" s="5"/>
+    </row>
+    <row r="159" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="5"/>
+      <c r="V159" s="5"/>
+      <c r="W159" s="5"/>
+      <c r="X159" s="5"/>
+      <c r="Y159" s="5"/>
+      <c r="Z159" s="5"/>
+      <c r="AA159" s="5"/>
+      <c r="AB159" s="5"/>
+      <c r="AC159" s="5"/>
+      <c r="AD159" s="5"/>
+      <c r="AE159" s="5"/>
+      <c r="AF159" s="5"/>
+      <c r="AG159" s="5"/>
+      <c r="AH159" s="5"/>
+      <c r="AI159" s="5"/>
+      <c r="AJ159" s="5"/>
+      <c r="AK159" s="5"/>
+      <c r="AL159" s="5"/>
+    </row>
+    <row r="160" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="5"/>
+      <c r="V160" s="5"/>
+      <c r="W160" s="5"/>
+      <c r="X160" s="5"/>
+      <c r="Y160" s="5"/>
+      <c r="Z160" s="5"/>
+      <c r="AA160" s="5"/>
+      <c r="AB160" s="5"/>
+      <c r="AC160" s="5"/>
+      <c r="AD160" s="5"/>
+      <c r="AE160" s="5"/>
+      <c r="AF160" s="5"/>
+      <c r="AG160" s="5"/>
+      <c r="AH160" s="5"/>
+      <c r="AI160" s="5"/>
+      <c r="AJ160" s="5"/>
+      <c r="AK160" s="5"/>
+      <c r="AL160" s="5"/>
+    </row>
+    <row r="161" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5"/>
+      <c r="V161" s="5"/>
+      <c r="W161" s="5"/>
+      <c r="X161" s="5"/>
+      <c r="Y161" s="5"/>
+      <c r="Z161" s="5"/>
+      <c r="AA161" s="5"/>
+      <c r="AB161" s="5"/>
+      <c r="AC161" s="5"/>
+      <c r="AD161" s="5"/>
+      <c r="AE161" s="5"/>
+      <c r="AF161" s="5"/>
+      <c r="AG161" s="5"/>
+      <c r="AH161" s="5"/>
+      <c r="AI161" s="5"/>
+      <c r="AJ161" s="5"/>
+      <c r="AK161" s="5"/>
+      <c r="AL161" s="5"/>
+    </row>
+    <row r="162" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="5"/>
+      <c r="V162" s="5"/>
+      <c r="W162" s="5"/>
+      <c r="X162" s="5"/>
+      <c r="Y162" s="5"/>
+      <c r="Z162" s="5"/>
+      <c r="AA162" s="5"/>
+      <c r="AB162" s="5"/>
+      <c r="AC162" s="5"/>
+      <c r="AD162" s="5"/>
+      <c r="AE162" s="5"/>
+      <c r="AF162" s="5"/>
+      <c r="AG162" s="5"/>
+      <c r="AH162" s="5"/>
+      <c r="AI162" s="5"/>
+      <c r="AJ162" s="5"/>
+      <c r="AK162" s="5"/>
+      <c r="AL162" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{069E6A84-B0A7-482C-9262-EE8EA53FBF4E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BD21AA-E1E0-45B8-970B-EADFB433A5B3}">
   <dimension ref="A1:BV298"/>
   <sheetViews>
@@ -887,7 +7211,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,33 +9996,33 @@
       <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11">
         <v>570.9</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <f>+P35</f>
         <v>576.4</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="11">
         <v>585.9</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="11">
         <f>+Q35</f>
         <v>586.70000000000005</v>
       </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13">
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11">
         <v>576.4</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="11">
         <v>586.70000000000005</v>
       </c>
       <c r="R35" s="5"/>
@@ -3841,23 +10165,23 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="8" t="e">
-        <f>+F8/D8-1</f>
+        <f t="shared" ref="F37:J42" si="18">+F8/D8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G37" s="8" t="e">
-        <f>+G8/E8-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="8" t="e">
-        <f>+H8/F8-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="8">
-        <f>+I8/G8-1</f>
+        <f t="shared" si="18"/>
         <v>1.5186466743560167E-2</v>
       </c>
       <c r="J37" s="8">
-        <f>+J8/H8-1</f>
+        <f t="shared" si="18"/>
         <v>0.12595419847328237</v>
       </c>
       <c r="K37" s="5"/>
@@ -3866,7 +10190,7 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="8">
-        <f t="shared" ref="P37:Q37" si="18">+P8/O8-1</f>
+        <f t="shared" ref="P37" si="19">+P8/O8-1</f>
         <v>6.65603826225587E-2</v>
       </c>
       <c r="Q37" s="8">
@@ -3939,23 +10263,23 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="8" t="e">
-        <f>+F9/D9-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G38" s="8" t="e">
-        <f>+G9/E9-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="8" t="e">
-        <f>+H9/F9-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="8">
-        <f>+I9/G9-1</f>
+        <f t="shared" si="18"/>
         <v>-7.5319622012228971E-2</v>
       </c>
       <c r="J38" s="8">
-        <f>+J9/H9-1</f>
+        <f t="shared" si="18"/>
         <v>2.4977960622979634E-2</v>
       </c>
       <c r="K38" s="5"/>
@@ -3964,11 +10288,11 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="8">
-        <f t="shared" ref="P38:Q42" si="19">+P9/O9-1</f>
+        <f t="shared" ref="P38:Q42" si="20">+P9/O9-1</f>
         <v>2.5776886724904191E-3</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-2.6567633195257789E-2</v>
       </c>
       <c r="R38" s="5"/>
@@ -4037,23 +10361,23 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="8" t="e">
-        <f>+F10/D10-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="8" t="e">
-        <f>+G10/E10-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="8" t="e">
-        <f>+H10/F10-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="8">
-        <f>+I10/G10-1</f>
+        <f t="shared" si="18"/>
         <v>2.9354207436399271E-2</v>
       </c>
       <c r="J39" s="8">
-        <f>+J10/H10-1</f>
+        <f t="shared" si="18"/>
         <v>9.3385214007781991E-2</v>
       </c>
       <c r="K39" s="5"/>
@@ -4062,11 +10386,11 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.21733966745843225</v>
       </c>
       <c r="Q39" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.1463414634146396E-2</v>
       </c>
       <c r="R39" s="5"/>
@@ -4135,23 +10459,23 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="8" t="e">
-        <f>+F11/D11-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G40" s="8" t="e">
-        <f>+G11/E11-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="8" t="e">
-        <f>+H11/F11-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I40" s="8">
-        <f>+I11/G11-1</f>
+        <f t="shared" si="18"/>
         <v>0.10026385224274414</v>
       </c>
       <c r="J40" s="8">
-        <f>+J11/H11-1</f>
+        <f t="shared" si="18"/>
         <v>0.1048780487804879</v>
       </c>
       <c r="K40" s="5"/>
@@ -4160,11 +10484,11 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.18068535825545173</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.10266159695817501</v>
       </c>
       <c r="R40" s="5"/>
@@ -4233,23 +10557,23 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="8" t="e">
-        <f>+F12/D12-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="8" t="e">
-        <f>+G12/E12-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="8" t="e">
-        <f>+H12/F12-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="8">
-        <f>+I12/G12-1</f>
+        <f t="shared" si="18"/>
         <v>-4.2452830188679291E-2</v>
       </c>
       <c r="J41" s="8">
-        <f>+J12/H12-1</f>
+        <f t="shared" si="18"/>
         <v>4.484304932735439E-3</v>
       </c>
       <c r="K41" s="5"/>
@@ -4258,11 +10582,11 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-4.6052631578947345E-2</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.8390804597701149E-2</v>
       </c>
       <c r="R41" s="5"/>
@@ -4331,23 +10655,23 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="8" t="e">
-        <f>+F13/D13-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G42" s="8" t="e">
-        <f>+G13/E13-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="8" t="e">
-        <f>+H13/F13-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I42" s="8">
-        <f>+I13/G13-1</f>
+        <f t="shared" si="18"/>
         <v>1.2539184952978122E-2</v>
       </c>
       <c r="J42" s="8">
-        <f>+J13/H13-1</f>
+        <f t="shared" si="18"/>
         <v>0.16618075801749277</v>
       </c>
       <c r="K42" s="5"/>
@@ -4356,11 +10680,11 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.6344725111441361E-2</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.2145015105740136E-2</v>
       </c>
       <c r="R42" s="5"/>
@@ -4428,39 +10752,39 @@
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="14" t="e">
-        <f t="shared" ref="F43" si="20">+F17/D17-1</f>
+      <c r="F43" s="12" t="e">
+        <f t="shared" ref="F43" si="21">+F17/D17-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="14" t="e">
-        <f t="shared" ref="G43:H43" si="21">+G17/E17-1</f>
+      <c r="G43" s="12" t="e">
+        <f t="shared" ref="G43:H43" si="22">+G17/E17-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="14" t="e">
-        <f t="shared" si="21"/>
+      <c r="H43" s="12" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="14">
-        <f t="shared" ref="I43:J43" si="22">+I17/G17-1</f>
+      <c r="I43" s="12">
+        <f t="shared" ref="I43:J43" si="23">+I17/G17-1</f>
         <v>-1.4088641033166982E-2</v>
       </c>
-      <c r="J43" s="14">
-        <f t="shared" si="22"/>
+      <c r="J43" s="12">
+        <f t="shared" si="23"/>
         <v>8.9177489177489244E-2</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="14">
-        <f t="shared" ref="O43:Q43" si="23">+O17/N17-1</f>
+      <c r="O43" s="12">
+        <f t="shared" ref="O43:P43" si="24">+O17/N17-1</f>
         <v>0.19136613326964413</v>
       </c>
-      <c r="P43" s="14">
-        <f t="shared" si="23"/>
+      <c r="P43" s="12">
+        <f t="shared" si="24"/>
         <v>3.3228086002105028E-2</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="Q43" s="12">
         <f>+Q17/P17-1</f>
         <v>3.7980209545983801E-2</v>
       </c>
@@ -4527,27 +10851,27 @@
         <v>51</v>
       </c>
       <c r="C44" s="8" t="e">
-        <f t="shared" ref="C44:H44" si="24">+C19/C17</f>
+        <f t="shared" ref="C44:H44" si="25">+C19/C17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D44" s="8" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E44" s="8" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F44" s="8" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.68222287447412189</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.67946127946127943</v>
       </c>
       <c r="I44" s="8">
@@ -4555,32 +10879,32 @@
         <v>0.67192616850253051</v>
       </c>
       <c r="J44" s="8">
-        <f t="shared" ref="J44:Q44" si="25">+J19/J17</f>
+        <f t="shared" ref="J44:Q44" si="26">+J19/J17</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="8" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M44" s="8" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.6673035586338667</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.6874154262516915</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.68083042297244856</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.66914341791672505</v>
       </c>
       <c r="R44" s="5"/>
@@ -4646,27 +10970,27 @@
         <v>52</v>
       </c>
       <c r="C45" s="8" t="e">
-        <f t="shared" ref="C45:H45" si="26">+C24/C17</f>
+        <f t="shared" ref="C45:H45" si="27">+C24/C17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D45" s="8" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E45" s="8" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F45" s="8" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.25975931904901672</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.20577200577200577</v>
       </c>
       <c r="I45" s="8">
@@ -4674,32 +10998,32 @@
         <v>0.21891435943237075</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" ref="J45:Q45" si="27">+J24/J17</f>
+        <f t="shared" ref="J45:Q45" si="28">+J24/J17</f>
         <v>0.1996996996996997</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="8" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M45" s="8" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N45" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.22408645808454741</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.25214253495714928</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.23253783469150174</v>
       </c>
       <c r="Q45" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.20874807233982898</v>
       </c>
       <c r="R45" s="5"/>
@@ -4765,27 +11089,27 @@
         <v>53</v>
       </c>
       <c r="C46" s="8" t="e">
-        <f t="shared" ref="C46:H46" si="28">+C29/C28</f>
+        <f t="shared" ref="C46:H46" si="29">+C29/C28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D46" s="8" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E46" s="8" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F46" s="8" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.1783948269303918</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.18163869693978282</v>
       </c>
       <c r="I46" s="8">
@@ -4793,32 +11117,32 @@
         <v>0.17312290769966523</v>
       </c>
       <c r="J46" s="8">
-        <f t="shared" ref="J46:Q46" si="29">+J29/J28</f>
+        <f t="shared" ref="J46:Q46" si="30">+J29/J28</f>
         <v>0.15221017514595497</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="8" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M46" s="8" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N46" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.16785592932381924</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.17801597309794032</v>
       </c>
       <c r="P46" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.17980665950590763</v>
       </c>
       <c r="Q46" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.16195143684562263</v>
       </c>
       <c r="R46" s="5"/>
